--- a/output_data/charts/capacity-JeffersonTownshipFranklin-0700000US390493861299999.xlsx
+++ b/output_data/charts/capacity-JeffersonTownshipFranklin-0700000US390493861299999.xlsx
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -862,46 +862,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10100</c:v>
+                  <c:v>10.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>482400</c:v>
+                  <c:v>482.4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>64400</c:v>
+                  <c:v>64.40000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>10800</c:v>
+                  <c:v>10.8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17400</c:v>
+                  <c:v>17.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21200</c:v>
+                  <c:v>21.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45500</c:v>
+                  <c:v>45.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>14400</c:v>
+                  <c:v>14.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>47040</c:v>
+                  <c:v>47.04</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>81890</c:v>
+                  <c:v>81.89</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>114374</c:v>
+                  <c:v>114.374</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>258930</c:v>
+                  <c:v>258.93</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>252695</c:v>
+                  <c:v>252.695</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1263990</c:v>
+                  <c:v>1263.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1214,7 +1214,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18000</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1342,14 +1342,14 @@
                   <a:rPr lang="en-US" sz="900" baseline="0">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Watts</a:t>
+                  <a:t>Kilowatts (kW)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="[&gt;=1000]#,##0,&quot;K&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>18000</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>10100</v>
+        <v>10.1</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>482400</v>
+        <v>482.4</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>64400</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>10800</v>
+        <v>10.8</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>17400</v>
+        <v>17.4</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>21200</v>
+        <v>21.2</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>45500</v>
+        <v>45.5</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>14400</v>
+        <v>14.4</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>47040</v>
+        <v>47.04</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>81890</v>
+        <v>81.89</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>114374</v>
+        <v>114.374</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>258930</v>
+        <v>258.93</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>252695</v>
+        <v>252.695</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>1263990</v>
+        <v>1263.99</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>

--- a/output_data/charts/capacity-JeffersonTownshipFranklin-0700000US390493861299999.xlsx
+++ b/output_data/charts/capacity-JeffersonTownshipFranklin-0700000US390493861299999.xlsx
@@ -901,7 +901,7 @@
                   <c:v>252.695</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1263.99</c:v>
+                  <c:v>1333.765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>1263.99</v>
+        <v>1333.765</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
